--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_4.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +518,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="F11">
@@ -862,12 +862,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F12">
@@ -905,12 +905,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PTEOBOV</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F13">
@@ -948,26 +948,155 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>2-RAP</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>PTEOBOV</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>SOLEAEG</t>
         </is>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SIMRANDO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
